--- a/assets/layout/screen0Elements.xlsx
+++ b/assets/layout/screen0Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Buttons"/>
@@ -17,18 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Parameter</t>
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>grid</t>
   </si>
   <si>
     <t>rows</t>
@@ -526,40 +520,40 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
@@ -580,10 +574,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -592,7 +586,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3">
         <v>700</v>
@@ -613,10 +607,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -654,40 +648,40 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
         <v>550</v>
@@ -708,10 +702,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" s="3">
         <v>4</v>
@@ -720,7 +714,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3">
         <v>550</v>
@@ -741,10 +735,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J3" s="3">
         <v>4</v>
@@ -753,7 +747,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3">
         <v>600</v>
@@ -774,10 +768,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3">
         <v>2</v>
@@ -796,7 +790,7 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -814,37 +808,37 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>650</v>
@@ -865,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -874,7 +868,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>650</v>
@@ -895,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -912,9 +906,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -934,24 +928,24 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -960,14 +954,6 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
